--- a/para_dt_working.xlsx
+++ b/para_dt_working.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4939c42b6b4aa92f/Documents/GitHub/BART-comp-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{7E9D11CD-5E41-49BE-B5F4-2FAEA9D37AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C606E63D-E0D3-41AB-A951-3D1AD0444B5F}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{7E9D11CD-5E41-49BE-B5F4-2FAEA9D37AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B42A821-2F5F-4B4D-B866-DC8F3BE9EE64}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="pivot1" sheetId="2" r:id="rId1"/>
+    <sheet name="pivot2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="208">
   <si>
     <t>trial_ID</t>
   </si>
@@ -645,7 +645,10 @@
     <t>Sum of tau</t>
   </si>
   <si>
-    <t>Count of sex</t>
+    <t>Average of mean_tau</t>
+  </si>
+  <si>
+    <t>Average of sd_tau</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[para_dt_working.xlsx]Sheet2!PivotTable1</c:name>
+    <c:name>[para_dt_working.xlsx]pivot1!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1096,9 +1099,6 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1155,9 +1155,6 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1214,9 +1211,6 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1273,9 +1267,6 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1332,9 +1323,6 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1391,9 +1379,6 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1450,9 +1435,6 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1509,9 +1491,6 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1568,9 +1547,6 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1627,9 +1603,6 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1686,9 +1659,6 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1745,9 +1715,6 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1804,9 +1771,6 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1863,9 +1827,6 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1922,9 +1883,6 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1981,9 +1939,6 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2933,6 +2888,870 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2944,7 +3763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$3:$B$4</c:f>
+              <c:f>pivot1!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2967,7 +3786,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3015,7 +3834,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$B$17</c:f>
+              <c:f>pivot1!$B$5:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3058,7 +3877,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$3:$C$4</c:f>
+              <c:f>pivot1!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3081,7 +3900,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3129,7 +3948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$17</c:f>
+              <c:f>pivot1!$C$5:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3172,7 +3991,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$3:$D$4</c:f>
+              <c:f>pivot1!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3195,7 +4014,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3243,7 +4062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$D$17</c:f>
+              <c:f>pivot1!$D$5:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3286,7 +4105,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$3:$E$4</c:f>
+              <c:f>pivot1!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3309,7 +4128,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3357,7 +4176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$E$17</c:f>
+              <c:f>pivot1!$E$5:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3400,7 +4219,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$4</c:f>
+              <c:f>pivot1!$F$3:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3423,7 +4242,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3471,7 +4290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$5:$F$17</c:f>
+              <c:f>pivot1!$F$5:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3514,7 +4333,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$3:$G$4</c:f>
+              <c:f>pivot1!$G$3:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3537,7 +4356,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3585,7 +4404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$5:$G$17</c:f>
+              <c:f>pivot1!$G$5:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3628,7 +4447,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$3:$H$4</c:f>
+              <c:f>pivot1!$H$3:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3653,7 +4472,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3701,7 +4520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$5:$H$17</c:f>
+              <c:f>pivot1!$H$5:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3744,7 +4563,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$3:$I$4</c:f>
+              <c:f>pivot1!$I$3:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3769,7 +4588,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3817,7 +4636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$5:$I$17</c:f>
+              <c:f>pivot1!$I$5:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3860,7 +4679,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$3:$J$4</c:f>
+              <c:f>pivot1!$J$3:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3885,7 +4704,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -3933,7 +4752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$5:$J$17</c:f>
+              <c:f>pivot1!$J$5:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3976,7 +4795,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$3:$K$4</c:f>
+              <c:f>pivot1!$K$3:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4001,7 +4820,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4049,7 +4868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$5:$K$17</c:f>
+              <c:f>pivot1!$K$5:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4092,7 +4911,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$3:$L$4</c:f>
+              <c:f>pivot1!$L$3:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4117,7 +4936,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4165,7 +4984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$5:$L$17</c:f>
+              <c:f>pivot1!$L$5:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4208,7 +5027,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$3:$M$4</c:f>
+              <c:f>pivot1!$M$3:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4233,7 +5052,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4281,7 +5100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$5:$M$17</c:f>
+              <c:f>pivot1!$M$5:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4324,7 +5143,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$3:$N$4</c:f>
+              <c:f>pivot1!$N$3:$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4350,7 +5169,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4398,7 +5217,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$N$5:$N$17</c:f>
+              <c:f>pivot1!$N$5:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4441,7 +5260,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$3:$O$4</c:f>
+              <c:f>pivot1!$O$3:$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4467,7 +5286,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4515,7 +5334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$O$5:$O$17</c:f>
+              <c:f>pivot1!$O$5:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4558,7 +5377,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$P$3:$P$4</c:f>
+              <c:f>pivot1!$P$3:$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4584,7 +5403,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4632,7 +5451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$P$5:$P$17</c:f>
+              <c:f>pivot1!$P$5:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4675,7 +5494,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$Q$3:$Q$4</c:f>
+              <c:f>pivot1!$Q$3:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4701,7 +5520,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$5:$A$17</c:f>
+              <c:f>pivot1!$A$5:$A$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="8"/>
                 <c:lvl>
@@ -4749,7 +5568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$Q$5:$Q$17</c:f>
+              <c:f>pivot1!$Q$5:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5005,7 +5824,1255 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[para_dt_working.xlsx]pivot2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of mean_tau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot2!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot2!$B$4:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1983000624999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2277064375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56099443750000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2060703000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2044941812499994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8702493750000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3313849999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6776799999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.12340125E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2341662500000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12942789374999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1261406249999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7646346249999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1468416625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1936412249999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5276587500000016E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21E8-44A2-A2BC-6402736015CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of sd_tau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot2!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot2!$C$4:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.698581912693637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9240497788969648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30484309247246216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0302671366526686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2040991243177723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7675570204849753E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15481339728386359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3527351915771814E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1790430755754863E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6234301854379421E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3008176180003704E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.063625789670937E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8066089051161756</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0835377538016435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3251257591519208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3202775158161418E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-21E8-44A2-A2BC-6402736015CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="784551199"/>
+        <c:axId val="784552159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="784551199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784552159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="784552159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784551199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5561,20 +7628,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5582,6 +8165,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA02CCF-E445-939A-AD73-ACECF7333C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB89D8F0-B143-B313-AE8C-7B54B5121F66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5910,7 +8534,24 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29" maxValue="82"/>
     </cacheField>
     <cacheField name="mean_tau" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.12340125E-2" maxValue="8.3313849999999992"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.12340125E-2" maxValue="8.3313849999999992" count="16">
+        <n v="1.1983000625"/>
+        <n v="1.2277064375"/>
+        <n v="0.56099443750000011"/>
+        <n v="1.2060702999999999"/>
+        <n v="5.2044941812500003"/>
+        <n v="5.8702493750000001E-2"/>
+        <n v="8.3313849999999992"/>
+        <n v="6.6776799999999997E-2"/>
+        <n v="4.12340125E-2"/>
+        <n v="4.2341662500000009E-2"/>
+        <n v="0.12942789374999999"/>
+        <n v="5.1261406249999988E-2"/>
+        <n v="2.7646346249999998"/>
+        <n v="1.1468416625"/>
+        <n v="3.1936412249999999"/>
+        <n v="5.5276587500000009E-2"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="sd_tau" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.7675570204849753E-3" maxValue="4.3251257591519208"/>
@@ -5965,7 +8606,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6007,7 +8648,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6049,7 +8690,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6091,7 +8732,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6133,7 +8774,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6175,7 +8816,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6217,7 +8858,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6259,7 +8900,7 @@
     <n v="18"/>
     <n v="14"/>
     <n v="32"/>
-    <n v="1.1983000625"/>
+    <x v="0"/>
     <n v="2.698581912693637"/>
   </r>
   <r>
@@ -6301,7 +8942,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6343,7 +8984,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6385,7 +9026,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6427,7 +9068,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6469,7 +9110,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6511,7 +9152,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6553,7 +9194,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6595,7 +9236,7 @@
     <n v="34"/>
     <n v="31"/>
     <n v="65"/>
-    <n v="1.2277064375"/>
+    <x v="1"/>
     <n v="2.9240497788969648"/>
   </r>
   <r>
@@ -6637,7 +9278,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6679,7 +9320,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6721,7 +9362,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6763,7 +9404,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6805,7 +9446,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6847,7 +9488,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6889,7 +9530,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6931,7 +9572,7 @@
     <n v="28"/>
     <n v="32"/>
     <n v="60"/>
-    <n v="0.56099443750000011"/>
+    <x v="2"/>
     <n v="0.30484309247246222"/>
   </r>
   <r>
@@ -6973,7 +9614,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7015,7 +9656,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7057,7 +9698,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7099,7 +9740,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7141,7 +9782,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7183,7 +9824,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7225,7 +9866,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7267,7 +9908,7 @@
     <n v="15"/>
     <n v="14"/>
     <n v="29"/>
-    <n v="1.2060702999999999"/>
+    <x v="3"/>
     <n v="3.030267136652669"/>
   </r>
   <r>
@@ -7309,7 +9950,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7351,7 +9992,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7393,7 +10034,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7435,7 +10076,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7477,7 +10118,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7519,7 +10160,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7561,7 +10202,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7603,7 +10244,7 @@
     <n v="39"/>
     <n v="38"/>
     <n v="77"/>
-    <n v="5.2044941812500003"/>
+    <x v="4"/>
     <n v="4.2040991243177732"/>
   </r>
   <r>
@@ -7645,7 +10286,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7687,7 +10328,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7729,7 +10370,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7771,7 +10412,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7813,7 +10454,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7855,7 +10496,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7897,7 +10538,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7939,7 +10580,7 @@
     <n v="18"/>
     <n v="23"/>
     <n v="41"/>
-    <n v="5.8702493750000001E-2"/>
+    <x v="5"/>
     <n v="8.7675570204849753E-3"/>
   </r>
   <r>
@@ -7981,7 +10622,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8023,7 +10664,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8065,7 +10706,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8107,7 +10748,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8149,7 +10790,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8191,7 +10832,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8233,7 +10874,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8275,7 +10916,7 @@
     <n v="23"/>
     <n v="30"/>
     <n v="53"/>
-    <n v="8.3313849999999992"/>
+    <x v="6"/>
     <n v="0.15481339728386359"/>
   </r>
   <r>
@@ -8317,7 +10958,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8359,7 +11000,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8401,7 +11042,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8443,7 +11084,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8485,7 +11126,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8527,7 +11168,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8569,7 +11210,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8611,7 +11252,7 @@
     <n v="15"/>
     <n v="23"/>
     <n v="38"/>
-    <n v="6.6776799999999997E-2"/>
+    <x v="7"/>
     <n v="2.3527351915771811E-2"/>
   </r>
   <r>
@@ -8653,7 +11294,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8695,7 +11336,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8737,7 +11378,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8779,7 +11420,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8821,7 +11462,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8863,7 +11504,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8905,7 +11546,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8947,7 +11588,7 @@
     <n v="14"/>
     <n v="16"/>
     <n v="30"/>
-    <n v="4.12340125E-2"/>
+    <x v="8"/>
     <n v="1.1790430755754861E-2"/>
   </r>
   <r>
@@ -8989,7 +11630,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9031,7 +11672,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9073,7 +11714,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9115,7 +11756,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9157,7 +11798,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9199,7 +11840,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9241,7 +11882,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9283,7 +11924,7 @@
     <n v="44"/>
     <n v="21"/>
     <n v="65"/>
-    <n v="4.2341662500000009E-2"/>
+    <x v="9"/>
     <n v="1.6234301854379421E-2"/>
   </r>
   <r>
@@ -9325,7 +11966,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9367,7 +12008,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9409,7 +12050,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9451,7 +12092,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9493,7 +12134,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9535,7 +12176,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9577,7 +12218,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9619,7 +12260,7 @@
     <n v="25"/>
     <n v="20"/>
     <n v="45"/>
-    <n v="0.12942789374999999"/>
+    <x v="10"/>
     <n v="5.300817618000371E-2"/>
   </r>
   <r>
@@ -9661,7 +12302,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9703,7 +12344,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9745,7 +12386,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9787,7 +12428,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9829,7 +12470,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9871,7 +12512,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9913,7 +12554,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9955,7 +12596,7 @@
     <n v="38"/>
     <n v="35"/>
     <n v="73"/>
-    <n v="5.1261406249999988E-2"/>
+    <x v="11"/>
     <n v="1.063625789670937E-2"/>
   </r>
   <r>
@@ -9997,7 +12638,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10039,7 +12680,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10081,7 +12722,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10123,7 +12764,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10165,7 +12806,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10207,7 +12848,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10249,7 +12890,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10291,7 +12932,7 @@
     <n v="14"/>
     <n v="15"/>
     <n v="29"/>
-    <n v="2.7646346249999998"/>
+    <x v="12"/>
     <n v="3.806608905116176"/>
   </r>
   <r>
@@ -10333,7 +12974,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10375,7 +13016,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10417,7 +13058,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10459,7 +13100,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10501,7 +13142,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10543,7 +13184,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10585,7 +13226,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10627,7 +13268,7 @@
     <n v="16"/>
     <n v="17"/>
     <n v="33"/>
-    <n v="1.1468416625"/>
+    <x v="13"/>
     <n v="3.083537753801644"/>
   </r>
   <r>
@@ -10669,7 +13310,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10711,7 +13352,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10753,7 +13394,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10795,7 +13436,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10837,7 +13478,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10879,7 +13520,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10921,7 +13562,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -10963,7 +13604,7 @@
     <n v="51"/>
     <n v="31"/>
     <n v="82"/>
-    <n v="3.1936412249999999"/>
+    <x v="14"/>
     <n v="4.3251257591519208"/>
   </r>
   <r>
@@ -11005,7 +13646,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11047,7 +13688,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11089,7 +13730,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11131,7 +13772,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11173,7 +13814,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11215,7 +13856,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11257,7 +13898,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
   <r>
@@ -11299,7 +13940,7 @@
     <n v="22"/>
     <n v="32"/>
     <n v="54"/>
-    <n v="5.5276587500000009E-2"/>
+    <x v="15"/>
     <n v="1.320277515816142E-2"/>
   </r>
 </pivotCacheRecords>
@@ -11661,7 +14302,7 @@
   <dataFields count="1">
     <dataField name="Sum of tau" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="48">
+  <chartFormats count="32">
     <chartFormat chart="1" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -11950,198 +14591,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12156,19 +14605,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D38A7925-3399-44A1-882F-0710911F6CC3}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D38A7925-3399-44A1-882F-0710911F6CC3}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="40">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="1"/>
@@ -12184,9 +14653,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="6">
         <item x="4"/>
         <item x="0"/>
@@ -12213,30 +14682,33 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="9"/>
+    <field x="5"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="20"/>
-  </colFields>
-  <colItems count="6">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -12252,13 +14724,78 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Count of sex" fld="18" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Average of mean_tau" fld="38" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="Average of sd_tau" fld="39" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12560,7 +15097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48B26E-9439-4D86-822A-48F0E333810D}">
   <dimension ref="A3:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12568,15 +15105,30 @@
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12647,55 +15199,55 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>8.0691680000000012</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.26331850000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>1.8182945000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.11127695</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.10823045000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.11905275</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>16.587240000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>0.15698614999999999</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>7.9694700000000007E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>5.8787400000000004E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>0.35148049999999997</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>0.1078438</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>0.45292949999999998</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <v>8.0897999999999998E-2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <v>8.7396950000000001E-2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>9.1153399999999996E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="5">
         <v>28.543751549999996</v>
       </c>
     </row>
@@ -12703,55 +15255,55 @@
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>7.8746600000000004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.120809</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.74506950000000005</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>5.36096E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>6.4628350000000001E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>6.8435700000000002E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>8.3842999999999996</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>4.4994649999999997E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>3.9253400000000001E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>2.617705E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>0.19647999999999999</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>5.5902E-2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>0.155777</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="5">
         <v>3.8353699999999998E-2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="5">
         <v>3.565745E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <v>5.2919599999999997E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="5">
         <v>17.957026999999997</v>
       </c>
     </row>
@@ -12759,55 +15311,55 @@
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.19450799999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.14250950000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>1.0732250000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>5.7667349999999999E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>4.3602099999999998E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>5.0617049999999997E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>8.2029399999999999</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.11199149999999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>4.0441299999999999E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>3.2610350000000003E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>0.15500050000000001</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>5.1941800000000003E-2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>0.29715249999999999</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <v>4.25443E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>5.1739500000000001E-2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <v>3.8233799999999998E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="5">
         <v>10.58672455</v>
       </c>
     </row>
@@ -12815,55 +15367,55 @@
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.44873449999999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.36444299999999996</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.61520149999999996</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>8.8456355000000002</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>15.1891</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>0.11023280000000001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>16.54027</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>9.8773449999999999E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>6.48947E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>6.5706750000000008E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.28776239999999997</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>9.4814549999999997E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>8.9882779999999993</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="5">
         <v>9.9637450000000002E-2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <v>8.2808533499999992</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="5">
         <v>0.11488519999999999</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="5">
         <v>60.20922315</v>
       </c>
     </row>
@@ -12871,55 +15423,55 @@
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.19929849999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>0.2374375</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>0.2506815</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.14401050000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>8.3411600000000004</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>6.5912650000000003E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>8.0456000000000003</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>6.4072749999999998E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>2.94758E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>3.1576300000000002E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>0.208368</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>5.4268700000000003E-2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>0.17150299999999999</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="5">
         <v>4.616435E-2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="5">
         <v>8.1882999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="5">
         <v>5.2025750000000003E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="5">
         <v>26.129855300000003</v>
       </c>
     </row>
@@ -12927,55 +15479,55 @@
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.24943599999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>0.12700549999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>0.36452000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>8.7016249999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>6.8479400000000004</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>4.4320150000000003E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>8.4946699999999993</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>3.4700700000000001E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>3.5418900000000003E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>3.413045E-2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>7.9394400000000004E-2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>4.0545850000000001E-2</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>8.8167749999999998</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="5">
         <v>5.3473100000000003E-2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <v>9.2553350000000006E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="5">
         <v>6.2859449999999997E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="5">
         <v>34.079367849999997</v>
       </c>
     </row>
@@ -12983,55 +15535,55 @@
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0.5616525</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>8.960957500000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>0.92196900000000004</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.39912694999999998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>9.1004330000000007</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>0.11673420000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>16.663550000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>0.13101269999999998</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>8.7109400000000003E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>0.10079494999999999</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>0.18020704999999998</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>8.3794649999999998E-2</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>1.3865095000000001</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="5">
         <v>0.1381684</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="5">
         <v>8.5415541499999996</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="5">
         <v>0.13989055</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="5">
         <v>47.513464500000005</v>
       </c>
     </row>
@@ -13039,55 +15591,55 @@
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0.17657600000000001</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>8.4569500000000009</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.21229500000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>4.6615450000000003E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>8.6702150000000007</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>5.5273200000000001E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>8.4193899999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>6.0502550000000002E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>4.3568700000000002E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>6.1456799999999999E-2</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>7.9107549999999999E-2</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>3.0769000000000001E-2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>0.17500950000000001</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>6.1193350000000001E-2</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="5">
         <v>6.1179150000000002E-2</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="5">
         <v>8.1678899999999999E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="5">
         <v>26.691780150000003</v>
       </c>
     </row>
@@ -13095,55 +15647,55 @@
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0.38507649999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0.50400750000000005</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>0.70967400000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>0.35251149999999998</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>0.43021799999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>6.1461000000000002E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>8.2441600000000008</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>7.0510149999999994E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>4.3540700000000002E-2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>3.9338150000000002E-2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.10109949999999999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>5.3025650000000001E-2</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>1.2115</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <v>7.6975050000000003E-2</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="5">
         <v>8.4803750000000004</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="5">
         <v>5.8211649999999997E-2</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="5">
         <v>20.821684350000002</v>
       </c>
     </row>
@@ -13151,55 +15703,55 @@
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0.50684550000000006</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>0.23293249999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>1.1324905000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.29252299999999998</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>17.238189999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>0.12360020000000001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>16.860019999999999</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>0.14744210000000002</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>9.8173300000000005E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>0.1134442</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>0.2159732</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <v>0.12363825000000001</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="5">
         <v>11.28936</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="5">
         <v>8.8560294499999994</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="5">
         <v>8.63932535</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="5">
         <v>9.6283549999999996E-2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="5">
         <v>65.9662711</v>
       </c>
     </row>
@@ -13207,55 +15759,55 @@
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>0.30747750000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>0.118487</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>0.76065850000000002</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.1506545</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>8.6670549999999995</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>6.8147650000000004E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>8.4816350000000007</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>6.4501900000000001E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>3.088805E-2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>7.2808650000000003E-2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>8.0326700000000001E-2</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <v>6.1642000000000002E-2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="5">
         <v>2.524035</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="5">
         <v>7.7909450000000005E-2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="5">
         <v>6.2815350000000006E-2</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="5">
         <v>4.3212E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="5">
         <v>21.572254250000004</v>
       </c>
     </row>
@@ -13263,55 +15815,55 @@
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>0.19936799999999999</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>0.11444550000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0.371832</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.14186850000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>8.5711349999999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>5.5452550000000003E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>8.3783849999999997</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>8.2940200000000006E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>6.7285250000000005E-2</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>4.0635549999999999E-2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>0.1356465</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <v>6.1996250000000003E-2</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="5">
         <v>8.7653250000000007</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="5">
         <v>8.7781199999999995</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="5">
         <v>8.5765100000000007</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="5">
         <v>5.3071550000000002E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="5">
         <v>44.39401685</v>
       </c>
     </row>
@@ -13319,55 +15871,55 @@
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>9.5864004999999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>9.8216515000000015</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>4.4879555000000009</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>9.6485624000000012</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>41.635953450000002</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>0.46961995000000001</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>66.651079999999993</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>0.53421439999999998</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>0.3298721</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>0.33873330000000007</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>1.03542315</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>0.41009124999999991</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="5">
         <v>22.117077000000002</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="5">
         <v>9.1747332999999998</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="5">
         <v>25.549129800000003</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="5">
         <v>0.44221270000000007</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="5">
         <v>202.23271030000001</v>
       </c>
     </row>
@@ -13379,21 +15931,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A153FC26-791B-4625-87A5-AB060229D267}">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H18:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -13406,116 +15958,208 @@
     <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>204</v>
+      <c r="C3" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.1983000624999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.698581912693637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.2277064375</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.9240497788969648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.56099443750000011</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.30484309247246216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.2060703000000002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.0302671366526686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.2044941812499994</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4.2040991243177723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.8702493750000015E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.7675570204849753E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8.3313849999999992</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.15481339728386359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.6776799999999983E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.3527351915771814E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4.12340125E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.1790430755754863E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.2341662500000002E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.6234301854379421E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.12942789374999999</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.3008176180003704E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.1261406249999981E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.063625789670937E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.7646346249999998</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3.8066089051161756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.1468416625</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3.0835377538016435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.1936412249999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4.3251257591519208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.5276587500000016E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.3202775158161418E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="5">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>48</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="5">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5">
-        <v>72</v>
-      </c>
-      <c r="F8" s="5">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5">
-        <v>128</v>
+      <c r="B20" s="5">
+        <v>1.5799430492187543</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.541818356948023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13523,10 +16167,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/para_dt_working.xlsx
+++ b/para_dt_working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4939c42b6b4aa92f/Documents/GitHub/BART-comp-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{7E9D11CD-5E41-49BE-B5F4-2FAEA9D37AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F999F5-3ED8-48D2-89D9-50528381F83D}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{7E9D11CD-5E41-49BE-B5F4-2FAEA9D37AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A945849-202C-4EEB-A15F-3E05952E46D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -664,7 +664,7 @@
     <t>StdDev of gamma</t>
   </si>
   <si>
-    <t>Count of shift</t>
+    <t>Average of gamma</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -731,6 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,7 +738,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -7567,6 +7603,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7623,6 +7662,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -9708,10 +9750,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15446,7 +15484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C776E6AB-3F03-4768-BCC0-9CB741E15147}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C776E6AB-3F03-4768-BCC0-9CB741E15147}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:R17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -16175,7 +16213,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D38A7925-3399-44A1-882F-0710911F6CC3}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D38A7925-3399-44A1-882F-0710911F6CC3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -16397,14 +16435,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF29F340-3C94-482D-8A5A-62E542D5A19A}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF29F340-3C94-482D-8A5A-62E542D5A19A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="17">
         <item x="0"/>
@@ -16426,7 +16464,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="15" showAll="0">
@@ -16565,23 +16603,23 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of shift" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of gamma" fld="4" subtotal="average" baseField="5" baseItem="8"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
@@ -16993,55 +17031,55 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>8.0691680000000012</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>0.26331850000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>1.8182945000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>0.11127695</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>0.10823045000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>0.11905275</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>16.587240000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>0.15698614999999999</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>7.9694700000000007E-2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>5.8787400000000004E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>0.35148049999999997</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>0.1078438</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5">
         <v>0.45292949999999998</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5">
         <v>8.0897999999999998E-2</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5">
         <v>8.7396950000000001E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5">
         <v>9.1153399999999996E-2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5">
         <v>28.543751549999996</v>
       </c>
     </row>
@@ -17049,55 +17087,55 @@
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>7.8746600000000004</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>0.120809</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>0.74506950000000005</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>5.36096E-2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>6.4628350000000001E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>6.8435700000000002E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>8.3842999999999996</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>4.4994649999999997E-2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>3.9253400000000001E-2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>2.617705E-2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>0.19647999999999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>5.5902E-2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <v>0.155777</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <v>3.8353699999999998E-2</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <v>3.565745E-2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <v>5.2919599999999997E-2</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
         <v>17.957026999999997</v>
       </c>
     </row>
@@ -17105,55 +17143,55 @@
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>0.19450799999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>0.14250950000000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>1.0732250000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>5.7667349999999999E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>4.3602099999999998E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>5.0617049999999997E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>8.2029399999999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>0.11199149999999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>4.0441299999999999E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <v>3.2610350000000003E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>0.15500050000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>5.1941800000000003E-2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>0.29715249999999999</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>4.25443E-2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>5.1739500000000001E-2</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>3.8233799999999998E-2</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>10.58672455</v>
       </c>
     </row>
@@ -17161,55 +17199,55 @@
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.44873449999999998</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>0.36444299999999996</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>0.61520149999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>8.8456355000000002</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>15.1891</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>0.11023280000000001</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>16.54027</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>9.8773449999999999E-2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>6.48947E-2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>6.5706750000000008E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>0.28776239999999997</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>9.4814549999999997E-2</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>8.9882779999999993</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>9.9637450000000002E-2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>8.2808533499999992</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>0.11488519999999999</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
         <v>60.20922315</v>
       </c>
     </row>
@@ -17217,55 +17255,55 @@
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>0.19929849999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>0.2374375</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>0.2506815</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>0.14401050000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>8.3411600000000004</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>6.5912650000000003E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>8.0456000000000003</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>6.4072749999999998E-2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>2.94758E-2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <v>3.1576300000000002E-2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>0.208368</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>5.4268700000000003E-2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>0.17150299999999999</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>4.616435E-2</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>8.1882999999999999</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>5.2025750000000003E-2</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
         <v>26.129855300000003</v>
       </c>
     </row>
@@ -17273,55 +17311,55 @@
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>0.24943599999999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>0.12700549999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>0.36452000000000001</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>8.7016249999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>6.8479400000000004</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>4.4320150000000003E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>8.4946699999999993</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>3.4700700000000001E-2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>3.5418900000000003E-2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <v>3.413045E-2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>7.9394400000000004E-2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>4.0545850000000001E-2</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>8.8167749999999998</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>5.3473100000000003E-2</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>9.2553350000000006E-2</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>6.2859449999999997E-2</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
         <v>34.079367849999997</v>
       </c>
     </row>
@@ -17329,55 +17367,55 @@
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>0.5616525</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>8.960957500000001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>0.92196900000000004</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>0.39912694999999998</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>9.1004330000000007</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>0.11673420000000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>16.663550000000001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>0.13101269999999998</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>8.7109400000000003E-2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11">
         <v>0.10079494999999999</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>0.18020704999999998</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>8.3794649999999998E-2</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11">
         <v>1.3865095000000001</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11">
         <v>0.1381684</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <v>8.5415541499999996</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>0.13989055</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
         <v>47.513464500000005</v>
       </c>
     </row>
@@ -17385,55 +17423,55 @@
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>0.17657600000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>8.4569500000000009</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>0.21229500000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>4.6615450000000003E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>8.6702150000000007</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>5.5273200000000001E-2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>8.4193899999999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>6.0502550000000002E-2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <v>4.3568700000000002E-2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12">
         <v>6.1456799999999999E-2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>7.9107549999999999E-2</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>3.0769000000000001E-2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12">
         <v>0.17500950000000001</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12">
         <v>6.1193350000000001E-2</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12">
         <v>6.1179150000000002E-2</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>8.1678899999999999E-2</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12">
         <v>26.691780150000003</v>
       </c>
     </row>
@@ -17441,55 +17479,55 @@
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>0.38507649999999999</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>0.50400750000000005</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.70967400000000003</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>0.35251149999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>0.43021799999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>6.1461000000000002E-2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>8.2441600000000008</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>7.0510149999999994E-2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>4.3540700000000002E-2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13">
         <v>3.9338150000000002E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>0.10109949999999999</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>5.3025650000000001E-2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13">
         <v>1.2115</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13">
         <v>7.6975050000000003E-2</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13">
         <v>8.4803750000000004</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13">
         <v>5.8211649999999997E-2</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13">
         <v>20.821684350000002</v>
       </c>
     </row>
@@ -17497,55 +17535,55 @@
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>0.50684550000000006</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>0.23293249999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>1.1324905000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>0.29252299999999998</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>17.238189999999999</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>0.12360020000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>16.860019999999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>0.14744210000000002</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <v>9.8173300000000005E-2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <v>0.1134442</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>0.2159732</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>0.12363825000000001</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14">
         <v>11.28936</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14">
         <v>8.8560294499999994</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14">
         <v>8.63932535</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14">
         <v>9.6283549999999996E-2</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14">
         <v>65.9662711</v>
       </c>
     </row>
@@ -17553,55 +17591,55 @@
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>0.30747750000000001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>0.118487</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>0.76065850000000002</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>0.1506545</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>8.6670549999999995</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>6.8147650000000004E-2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>8.4816350000000007</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>6.4501900000000001E-2</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
         <v>3.088805E-2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15">
         <v>7.2808650000000003E-2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
         <v>8.0326700000000001E-2</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15">
         <v>6.1642000000000002E-2</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15">
         <v>2.524035</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>7.7909450000000005E-2</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <v>6.2815350000000006E-2</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15">
         <v>4.3212E-2</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15">
         <v>21.572254250000004</v>
       </c>
     </row>
@@ -17609,55 +17647,55 @@
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>0.19936799999999999</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>0.11444550000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>0.371832</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>0.14186850000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>8.5711349999999999</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>5.5452550000000003E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>8.3783849999999997</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>8.2940200000000006E-2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16">
         <v>6.7285250000000005E-2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16">
         <v>4.0635549999999999E-2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
         <v>0.1356465</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16">
         <v>6.1996250000000003E-2</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16">
         <v>8.7653250000000007</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16">
         <v>8.7781199999999995</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16">
         <v>8.5765100000000007</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16">
         <v>5.3071550000000002E-2</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16">
         <v>44.39401685</v>
       </c>
     </row>
@@ -17665,55 +17703,55 @@
       <c r="A17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>9.5864004999999999</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>9.8216515000000015</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>4.4879555000000009</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>9.6485624000000012</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>41.635953450000002</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>0.46961995000000001</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>66.651079999999993</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>0.53421439999999998</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17">
         <v>0.3298721</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17">
         <v>0.33873330000000007</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
         <v>1.03542315</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17">
         <v>0.41009124999999991</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17">
         <v>22.117077000000002</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17">
         <v>9.1747332999999998</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17">
         <v>25.549129800000003</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17">
         <v>0.44221270000000007</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17">
         <v>202.23271030000001</v>
       </c>
     </row>
@@ -17769,155 +17807,155 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>45377</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>0.98582740624999987</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>7.7516144218750006E-4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>0.32048017023544711</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>1.2130032499999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>45388</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>0.9801630937500001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>3.7635701309374999E-3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>1.2388610141395615</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>0.88353236874999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>45513</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>0.98237525000000003</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>3.3083610531250006E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>0.40984568281942879</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>2.6315983375000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>45620</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>0.98322981249999986</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>5.3559717221875001E-3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>0.50344634308889702</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>4.1990808999999993</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>45669</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.98483165625000013</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>1.1033369812499999E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>0.52564093268718226</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>4.1787837499999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>45688</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>0.98513424999999988</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>5.4475291031250003E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>0.83783111625687046</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>9.0344649999999985E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>45723</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>0.98426468749999996</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>1.2863455875312499E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>0.52544114175170997</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>1.9557381437500001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>45751</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>0.98619459374999996</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>5.2669520115624993E-3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>0.52358832691889567</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>1.6244589062500001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>0.98400259374999999</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>5.9767963938671884E-3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>0.71292451162819703</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>1.5799430492187498</v>
       </c>
     </row>
@@ -17933,37 +17971,37 @@
   <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E4" t="s">
@@ -17977,10 +18015,10 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8</v>
+        <v>1.3286965000000002</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.3286965000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -17990,10 +18028,10 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8</v>
+        <v>1.0311783125</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.0311783125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -18002,11 +18040,11 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10">
-        <v>8</v>
+        <v>1.3997497937500001</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="6">
-        <v>8</v>
+      <c r="E7" s="9">
+        <v>1.3997497937500001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -18016,10 +18054,10 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
-        <v>8</v>
+        <v>1.7305077499999999</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.7305077499999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -18029,10 +18067,10 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8</v>
+        <v>1.4679435624999999</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.4679435624999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -18041,11 +18079,11 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10">
-        <v>8</v>
+        <v>1.6504787499999998</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="6">
-        <v>8</v>
+      <c r="E10" s="9">
+        <v>1.6504787499999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -18053,12 +18091,12 @@
         <v>109</v>
       </c>
       <c r="B11" s="10">
-        <v>8</v>
+        <v>1.2753468750000001</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="6">
-        <v>8</v>
+      <c r="E11" s="9">
+        <v>1.2753468750000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -18067,11 +18105,11 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10">
-        <v>8</v>
+        <v>1.765009375</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="6">
-        <v>8</v>
+      <c r="E12" s="9">
+        <v>1.765009375</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -18080,11 +18118,11 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10">
-        <v>8</v>
+        <v>2.3100212500000001</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="6">
-        <v>8</v>
+      <c r="E13" s="9">
+        <v>2.3100212500000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -18093,11 +18131,11 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10">
-        <v>8</v>
+        <v>1.9891850000000002</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="6">
-        <v>8</v>
+      <c r="E14" s="9">
+        <v>1.9891850000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -18106,11 +18144,11 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10">
-        <v>8</v>
+        <v>1.1460542500000002</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="6">
-        <v>8</v>
+      <c r="E15" s="9">
+        <v>1.1460542500000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -18119,11 +18157,11 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10">
-        <v>8</v>
+        <v>2.2050887499999998</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="6">
-        <v>8</v>
+      <c r="E16" s="9">
+        <v>2.2050887499999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -18133,10 +18171,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6">
-        <v>8</v>
+        <v>0.92181637500000002</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.92181637500000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -18146,10 +18184,10 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6">
-        <v>8</v>
+        <v>1.4265568125000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.4265568125000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -18159,10 +18197,10 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8</v>
+        <v>1.4992099999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.4992099999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -18171,11 +18209,11 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10">
-        <v>8</v>
+        <v>1.868366875</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="6">
-        <v>8</v>
+      <c r="E20" s="9">
+        <v>1.868366875</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -18183,16 +18221,16 @@
         <v>203</v>
       </c>
       <c r="B21" s="10">
-        <v>8</v>
+        <v>1.2753468750000001</v>
       </c>
       <c r="C21" s="10">
-        <v>64</v>
+        <v>1.7917442554687504</v>
       </c>
       <c r="D21" s="10">
-        <v>56</v>
-      </c>
-      <c r="E21" s="6">
-        <v>128</v>
+        <v>1.3437013303571432</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.5634506394531251</v>
       </c>
     </row>
   </sheetData>
